--- a/data/trans_orig/P57_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_R2-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>182032</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>161306</v>
+        <v>160204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>202497</v>
+        <v>201827</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.433963926967913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3845545831935562</v>
+        <v>0.3819266078929868</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4827532271374132</v>
+        <v>0.4811567104341209</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -763,19 +763,19 @@
         <v>171405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152560</v>
+        <v>154199</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190851</v>
+        <v>189995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4364280609973056</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3884448620879596</v>
+        <v>0.3926191494261623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4859406249952911</v>
+        <v>0.4837609729722888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>348</v>
@@ -784,19 +784,19 @@
         <v>353437</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>324886</v>
+        <v>326571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>380183</v>
+        <v>382296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4351554644767935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4000029810577637</v>
+        <v>0.4020783432803723</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4680853600329369</v>
+        <v>0.4706871623694192</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>237431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>216966</v>
+        <v>217636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>258157</v>
+        <v>259259</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.566036073032087</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5172467728625869</v>
+        <v>0.5188432895658792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6154454168064438</v>
+        <v>0.6180733921070133</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>226</v>
@@ -834,19 +834,19 @@
         <v>221340</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201894</v>
+        <v>202750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240185</v>
+        <v>238546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5635719390026944</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5140593750047089</v>
+        <v>0.5162390270277111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6115551379120403</v>
+        <v>0.6073808505738376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>446</v>
@@ -855,19 +855,19 @@
         <v>458771</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>432025</v>
+        <v>429912</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>487322</v>
+        <v>485637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5648445355232065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.531914639967063</v>
+        <v>0.5293128376305808</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5999970189422362</v>
+        <v>0.5979216567196277</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>194937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175252</v>
+        <v>173180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>217296</v>
+        <v>218412</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3326822211219108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2990877668452901</v>
+        <v>0.2955512658159066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3708410303053121</v>
+        <v>0.3727451636746002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>206</v>
@@ -980,19 +980,19 @@
         <v>197501</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176363</v>
+        <v>176249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221288</v>
+        <v>219851</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3532550615423088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3154473557035342</v>
+        <v>0.3152442500703591</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3958015676656351</v>
+        <v>0.3932315622175204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>395</v>
@@ -1001,19 +1001,19 @@
         <v>392437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>360062</v>
+        <v>363461</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>424379</v>
+        <v>425806</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3427272821375271</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3144531667139062</v>
+        <v>0.3174215104352083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3706229905851112</v>
+        <v>0.3718691545641503</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>391018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368659</v>
+        <v>367543</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>410703</v>
+        <v>412775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6673177788780892</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6291589696946879</v>
+        <v>0.6272548363253997</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7009122331547099</v>
+        <v>0.7044487341840935</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -1051,19 +1051,19 @@
         <v>361587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>337800</v>
+        <v>339237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>382725</v>
+        <v>382839</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6467449384576912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.604198432334365</v>
+        <v>0.6067684377824796</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.684552644296466</v>
+        <v>0.6847557499296409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>743</v>
@@ -1072,19 +1072,19 @@
         <v>752606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>720664</v>
+        <v>719237</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>784981</v>
+        <v>781582</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6572727178624729</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6293770094148888</v>
+        <v>0.6281308454358496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6855468332860937</v>
+        <v>0.6825784895647917</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>224317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>201846</v>
+        <v>199912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>249768</v>
+        <v>250031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3366683994447742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3029418865037201</v>
+        <v>0.3000392643388765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3748670145770541</v>
+        <v>0.3752609514877376</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -1197,19 +1197,19 @@
         <v>202354</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180715</v>
+        <v>178705</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>227881</v>
+        <v>225061</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3063866168036581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2736236561186089</v>
+        <v>0.2705805624829598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3450372593793704</v>
+        <v>0.3407683964565563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>417</v>
@@ -1218,19 +1218,19 @@
         <v>426670</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>392592</v>
+        <v>392246</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>463126</v>
+        <v>461111</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3215940730992364</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2959084089269025</v>
+        <v>0.2956475006292411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3490717625311413</v>
+        <v>0.3475532640935557</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>441968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>416517</v>
+        <v>416254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>464439</v>
+        <v>466373</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6633316005552258</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.625132985422946</v>
+        <v>0.6247390485122624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6970581134962799</v>
+        <v>0.6999607356611235</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>461</v>
@@ -1268,19 +1268,19 @@
         <v>458098</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>432571</v>
+        <v>435391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>479737</v>
+        <v>481747</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6936133831963419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6549627406206299</v>
+        <v>0.6592316035434438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7263763438813912</v>
+        <v>0.7294194375170403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>882</v>
@@ -1289,19 +1289,19 @@
         <v>900066</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>863610</v>
+        <v>865625</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>934144</v>
+        <v>934490</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6784059269007636</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6509282374688588</v>
+        <v>0.6524467359064443</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7040915910730976</v>
+        <v>0.7043524993707588</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>171175</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148445</v>
+        <v>150110</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>196508</v>
+        <v>196881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2662961630420827</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2309346886262836</v>
+        <v>0.2335245765678714</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.305706249071642</v>
+        <v>0.30628697172416</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -1414,19 +1414,19 @@
         <v>144501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123069</v>
+        <v>124247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166952</v>
+        <v>167560</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2237670464287305</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1905789045533095</v>
+        <v>0.1924029973481323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2585338805200936</v>
+        <v>0.2594753593511853</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>285</v>
@@ -1435,19 +1435,19 @@
         <v>315676</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>284654</v>
+        <v>282883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>348508</v>
+        <v>346403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2449826704625419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2209078540137639</v>
+        <v>0.2195330642723034</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2704616987641039</v>
+        <v>0.2688283584944</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>471625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>446292</v>
+        <v>445919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>494355</v>
+        <v>492690</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7337038369579173</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6942937509283581</v>
+        <v>0.69371302827584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7690653113737165</v>
+        <v>0.7664754234321288</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>465</v>
@@ -1485,19 +1485,19 @@
         <v>501265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>478814</v>
+        <v>478206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>522697</v>
+        <v>521519</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7762329535712695</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7414661194799064</v>
+        <v>0.7405246406488148</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8094210954466904</v>
+        <v>0.8075970026518678</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>893</v>
@@ -1506,19 +1506,19 @@
         <v>972890</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>940058</v>
+        <v>942163</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1003912</v>
+        <v>1005683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7550173295374581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7295383012358961</v>
+        <v>0.7311716415055999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7790921459862361</v>
+        <v>0.7804669357276964</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>123753</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105325</v>
+        <v>106352</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>144889</v>
+        <v>145828</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2595187255248437</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.220874306457056</v>
+        <v>0.2230275054718868</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3038426503517196</v>
+        <v>0.3058133119865116</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -1631,19 +1631,19 @@
         <v>98446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81412</v>
+        <v>79629</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117641</v>
+        <v>118443</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1985587566572846</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1642018492038231</v>
+        <v>0.1606054249242444</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2372740619371035</v>
+        <v>0.238891202097044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>192</v>
@@ -1652,19 +1652,19 @@
         <v>222199</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>196651</v>
+        <v>193665</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>251958</v>
+        <v>251137</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2284449213876708</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2021794718471354</v>
+        <v>0.1991096534198953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2590409082413487</v>
+        <v>0.2581971125166768</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>353101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>331965</v>
+        <v>331026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>371529</v>
+        <v>370502</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7404812744751563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6961573496482801</v>
+        <v>0.694186688013488</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7791256935429439</v>
+        <v>0.7769724945281132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>349</v>
@@ -1702,19 +1702,19 @@
         <v>397357</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>378162</v>
+        <v>377360</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>414391</v>
+        <v>416174</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8014412433427154</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7627259380628965</v>
+        <v>0.7611087979029562</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8357981507961769</v>
+        <v>0.8393945750757555</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>663</v>
@@ -1723,19 +1723,19 @@
         <v>750458</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>720699</v>
+        <v>721520</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>776006</v>
+        <v>778992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7715550786123292</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7409590917586513</v>
+        <v>0.7418028874833231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7978205281528645</v>
+        <v>0.8008903465801047</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>82004</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66597</v>
+        <v>67573</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99474</v>
+        <v>98231</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2467186127846086</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2003664516458579</v>
+        <v>0.2033015359271871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2992786122559465</v>
+        <v>0.2955392004039239</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -1848,19 +1848,19 @@
         <v>62444</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48383</v>
+        <v>49101</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76657</v>
+        <v>79165</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1652986240338581</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.128077401067769</v>
+        <v>0.1299793977588354</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.202925349044675</v>
+        <v>0.2095630211545214</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -1869,19 +1869,19 @@
         <v>144447</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123087</v>
+        <v>124164</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>168196</v>
+        <v>169414</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2034069062263785</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1733281871867019</v>
+        <v>0.1748449878537613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2368491949843319</v>
+        <v>0.2385643958949769</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>250374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232904</v>
+        <v>234147</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265781</v>
+        <v>264805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7532813872153914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.700721387744052</v>
+        <v>0.7044607995960761</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7996335483541418</v>
+        <v>0.796698464072813</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>295</v>
@@ -1919,19 +1919,19 @@
         <v>315318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>301105</v>
+        <v>298597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>329379</v>
+        <v>328661</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8347013759661419</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7970746509553253</v>
+        <v>0.7904369788454789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8719225989322311</v>
+        <v>0.8700206022411652</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>541</v>
@@ -1940,19 +1940,19 @@
         <v>565693</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>541944</v>
+        <v>540726</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>587053</v>
+        <v>585976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7965930937736215</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7631508050156676</v>
+        <v>0.761435604105023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8266718128132972</v>
+        <v>0.8251550121462387</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>47979</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36487</v>
+        <v>36937</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60366</v>
+        <v>59346</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1866910046426273</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1419747764597953</v>
+        <v>0.1437256081005662</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2348872897965875</v>
+        <v>0.2309207302474462</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2065,19 +2065,19 @@
         <v>52073</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38054</v>
+        <v>37057</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69639</v>
+        <v>71244</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1313345459636366</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09597879604729644</v>
+        <v>0.09346188159160318</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1756390560730069</v>
+        <v>0.1796881202432934</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -2086,19 +2086,19 @@
         <v>100052</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>83370</v>
+        <v>81579</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>122931</v>
+        <v>121156</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1531047236407727</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1275779116155205</v>
+        <v>0.1248371323165841</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1881154898037166</v>
+        <v>0.1853998282611996</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>209019</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196632</v>
+        <v>197652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220511</v>
+        <v>220061</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8133089953573728</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7651127102034129</v>
+        <v>0.7690792697525538</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8580252235402048</v>
+        <v>0.8562743918994337</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>261</v>
@@ -2136,19 +2136,19 @@
         <v>344415</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>326849</v>
+        <v>325244</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>358434</v>
+        <v>359431</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8686654540363634</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.824360943926993</v>
+        <v>0.8203118797567066</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9040212039527032</v>
+        <v>0.9065381184083968</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>506</v>
@@ -2157,19 +2157,19 @@
         <v>553434</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>530555</v>
+        <v>532330</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>570116</v>
+        <v>571907</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8468952763592272</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.811884510196283</v>
+        <v>0.8146001717388004</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8724220883844793</v>
+        <v>0.8751628676834159</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>1026196</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>976655</v>
+        <v>973015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1083913</v>
+        <v>1080247</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.303542595721792</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2888884188953999</v>
+        <v>0.2878117499622123</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3206149164345699</v>
+        <v>0.3195302868229622</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>897</v>
@@ -2282,19 +2282,19 @@
         <v>928723</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>875391</v>
+        <v>876296</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>982733</v>
+        <v>985952</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2632355943658629</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2481194828648475</v>
+        <v>0.2483757961060622</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2785441665670674</v>
+        <v>0.2794565142534241</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1867</v>
@@ -2303,19 +2303,19 @@
         <v>1954919</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1882999</v>
+        <v>1874566</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2031845</v>
+        <v>2030836</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2829592062810851</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2725492784698017</v>
+        <v>0.2713287601490773</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2940936043540789</v>
+        <v>0.2939475263534146</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>2354537</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2296820</v>
+        <v>2300486</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2404078</v>
+        <v>2407718</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.696457404278208</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6793850835654301</v>
+        <v>0.6804697131770379</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7111115811046</v>
+        <v>0.7121882500377877</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2426</v>
@@ -2353,19 +2353,19 @@
         <v>2599381</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2545371</v>
+        <v>2542152</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2652713</v>
+        <v>2651808</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.736764405634137</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7214558334329325</v>
+        <v>0.7205434857465759</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7518805171351525</v>
+        <v>0.7516242038939378</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4674</v>
@@ -2374,19 +2374,19 @@
         <v>4953918</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4876992</v>
+        <v>4878001</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5025838</v>
+        <v>5034271</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7170407937189149</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7059063956459209</v>
+        <v>0.7060524736465854</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.727450721530198</v>
+        <v>0.7286712398509231</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>268737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>235500</v>
+        <v>234351</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>297983</v>
+        <v>297849</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6590023721055828</v>
+        <v>0.6590023721055825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5774990434391558</v>
+        <v>0.5746805209032176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7307220186783362</v>
+        <v>0.7303923111483643</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>122</v>
@@ -2742,19 +2742,19 @@
         <v>209999</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>186162</v>
+        <v>183013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>236861</v>
+        <v>234734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5792871893108748</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5135332474661152</v>
+        <v>0.5048466676268386</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6533883686193632</v>
+        <v>0.6475209993153965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>235</v>
@@ -2763,19 +2763,19 @@
         <v>478735</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>437523</v>
+        <v>439335</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>519686</v>
+        <v>516551</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6214877422664574</v>
+        <v>0.6214877422664572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5679864854454585</v>
+        <v>0.5703392633945048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6746496878274327</v>
+        <v>0.6705803540032437</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>139056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109810</v>
+        <v>109944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>172293</v>
+        <v>173442</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3409976278944174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2692779813216639</v>
+        <v>0.2696076888516357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4225009565608445</v>
+        <v>0.4253194790967825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -2813,19 +2813,19 @@
         <v>152513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>125651</v>
+        <v>127778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>176350</v>
+        <v>179499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4207128106891252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3466116313806366</v>
+        <v>0.3524790006846035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4864667525338848</v>
+        <v>0.4951533323731614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>144</v>
@@ -2834,19 +2834,19 @@
         <v>291570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>250619</v>
+        <v>253754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>332782</v>
+        <v>330970</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3785122577335428</v>
+        <v>0.3785122577335427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3253503121725673</v>
+        <v>0.3294196459967563</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4320135145545416</v>
+        <v>0.4296607366054951</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>254974</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>226873</v>
+        <v>228367</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>281977</v>
+        <v>285271</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5346590813954085</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4757343294022812</v>
+        <v>0.4788682485063728</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5912825492665862</v>
+        <v>0.5981906694092771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>250</v>
@@ -2959,19 +2959,19 @@
         <v>270847</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>247423</v>
+        <v>245818</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>292817</v>
+        <v>293994</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5415938577899618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4947554612529397</v>
+        <v>0.4915463876635586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5855268023819219</v>
+        <v>0.5878806531173866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>413</v>
@@ -2980,19 +2980,19 @@
         <v>525820</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>486684</v>
+        <v>490510</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>563515</v>
+        <v>561704</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5382088155138707</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.498150227487515</v>
+        <v>0.5020670684146382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5767916426839828</v>
+        <v>0.574938412838535</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>221916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>194913</v>
+        <v>191619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>250017</v>
+        <v>248523</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4653409186045915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4087174507334135</v>
+        <v>0.4018093305907228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.524265670597719</v>
+        <v>0.5211317514936271</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>209</v>
@@ -3030,19 +3030,19 @@
         <v>229245</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>207275</v>
+        <v>206098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>252669</v>
+        <v>254274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4584061422100381</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4144731976180781</v>
+        <v>0.4121193468826133</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5052445387470604</v>
+        <v>0.5084536123364415</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>348</v>
@@ -3051,19 +3051,19 @@
         <v>451162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>413467</v>
+        <v>415278</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>490298</v>
+        <v>486472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4617911844861294</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4232083573160172</v>
+        <v>0.4250615871614651</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.501849772512485</v>
+        <v>0.4979329315853618</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>314114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>288355</v>
+        <v>288184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>337757</v>
+        <v>338411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.505951697272761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4644611143353853</v>
+        <v>0.4641858508411727</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5440347654043731</v>
+        <v>0.5450878918003894</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>414</v>
@@ -3176,19 +3176,19 @@
         <v>313014</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>292583</v>
+        <v>290507</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>334346</v>
+        <v>334398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5037808708143233</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4708983328439744</v>
+        <v>0.4675572409626719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5381144678878826</v>
+        <v>0.5381979931149409</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>683</v>
@@ -3197,19 +3197,19 @@
         <v>627127</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>595638</v>
+        <v>590971</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>657671</v>
+        <v>659020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5048658542621262</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4795159247812367</v>
+        <v>0.4757587560592009</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.529455661816673</v>
+        <v>0.5305414212002521</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>306723</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283080</v>
+        <v>282426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>332482</v>
+        <v>332653</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4940483027272392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4559652345956269</v>
+        <v>0.4549121081996104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5355388856646147</v>
+        <v>0.535814149158827</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>431</v>
@@ -3247,19 +3247,19 @@
         <v>308315</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>286983</v>
+        <v>286931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328746</v>
+        <v>330822</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4962191291856767</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4618855321121173</v>
+        <v>0.4618020068850593</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5291016671560257</v>
+        <v>0.5324427590373281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>708</v>
@@ -3268,19 +3268,19 @@
         <v>615038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>584494</v>
+        <v>583145</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646527</v>
+        <v>651194</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4951341457378738</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4705443381833267</v>
+        <v>0.4694585787997481</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5204840752187632</v>
+        <v>0.5242412439407993</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>319751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>294065</v>
+        <v>293074</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>346545</v>
+        <v>348671</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4563846108504294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4197227761339816</v>
+        <v>0.4183088153446856</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4946283093744825</v>
+        <v>0.4976625985156328</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>435</v>
@@ -3393,19 +3393,19 @@
         <v>282414</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>263199</v>
+        <v>263005</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>303588</v>
+        <v>303347</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3861378841617309</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3598654092712611</v>
+        <v>0.3596006400578751</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4150879851542425</v>
+        <v>0.4147587802766349</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>730</v>
@@ -3414,19 +3414,19 @@
         <v>602165</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>569483</v>
+        <v>567157</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>638014</v>
+        <v>639020</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4205066759145231</v>
+        <v>0.420506675914523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3976837514401296</v>
+        <v>0.3960594171687223</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.445540777263534</v>
+        <v>0.4462433507972706</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>380866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354072</v>
+        <v>351946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>406552</v>
+        <v>407543</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5436153891495707</v>
+        <v>0.5436153891495705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5053716906255175</v>
+        <v>0.5023374014843671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5802772238660184</v>
+        <v>0.5816911846553142</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>698</v>
@@ -3464,19 +3464,19 @@
         <v>448968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>427794</v>
+        <v>428035</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>468183</v>
+        <v>468377</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.613862115838269</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5849120148457576</v>
+        <v>0.585241219723365</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6401345907287391</v>
+        <v>0.6403993599421247</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1068</v>
@@ -3485,19 +3485,19 @@
         <v>829834</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>793985</v>
+        <v>792979</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>862516</v>
+        <v>864842</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5794933240854769</v>
+        <v>0.579493324085477</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5544592227364656</v>
+        <v>0.5537566492027293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6023162485598703</v>
+        <v>0.6039405828312777</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>214061</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>191441</v>
+        <v>191617</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>236235</v>
+        <v>237175</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3537194664629288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3163420223829135</v>
+        <v>0.3166331500335184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3903600893746863</v>
+        <v>0.391914085885991</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>310</v>
@@ -3610,19 +3610,19 @@
         <v>191131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>173678</v>
+        <v>173850</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>208828</v>
+        <v>210292</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3155272749123319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2867140786836954</v>
+        <v>0.2869986467126369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3447413572188144</v>
+        <v>0.3471583533167525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>536</v>
@@ -3631,19 +3631,19 @@
         <v>405192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>377015</v>
+        <v>378455</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>434538</v>
+        <v>434062</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3346142104347492</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3113451483949146</v>
+        <v>0.3125341286019939</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3588480331437556</v>
+        <v>0.3584555250181135</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>391110</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>368936</v>
+        <v>367996</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>413730</v>
+        <v>413554</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6462805335370713</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6096399106253135</v>
+        <v>0.608085914114009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6836579776170865</v>
+        <v>0.6833668499664817</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>687</v>
@@ -3681,19 +3681,19 @@
         <v>414621</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>396924</v>
+        <v>395460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>432074</v>
+        <v>431902</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6844727250876681</v>
+        <v>0.6844727250876682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6552586427811856</v>
+        <v>0.6528416466832473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7132859213163038</v>
+        <v>0.713001353287363</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1121</v>
@@ -3702,19 +3702,19 @@
         <v>805732</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>776386</v>
+        <v>776862</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>833909</v>
+        <v>832469</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6653857895652509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6411519668562445</v>
+        <v>0.6415444749818864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6886548516050853</v>
+        <v>0.6874658713980062</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>162847</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>146178</v>
+        <v>147146</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179654</v>
+        <v>177966</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4022365901718269</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3610643458999175</v>
+        <v>0.3634545276954081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4437519037258902</v>
+        <v>0.4395814718459712</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>277</v>
@@ -3827,19 +3827,19 @@
         <v>147740</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>133854</v>
+        <v>134887</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>162359</v>
+        <v>165023</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3372449007347171</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3055473833339691</v>
+        <v>0.3079054335563883</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3706158455870681</v>
+        <v>0.3766975621068202</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>494</v>
@@ -3848,19 +3848,19 @@
         <v>310586</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>288929</v>
+        <v>289275</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>334554</v>
+        <v>333224</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3684599011936366</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3427671724570133</v>
+        <v>0.3431772228919969</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3968932901625988</v>
+        <v>0.3953159288548008</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>242006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225199</v>
+        <v>226887</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>258675</v>
+        <v>257707</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5977634098281731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5562480962741099</v>
+        <v>0.5604185281540288</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6389356541000825</v>
+        <v>0.6365454723045918</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>548</v>
@@ -3898,19 +3898,19 @@
         <v>290338</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>275719</v>
+        <v>273055</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>304224</v>
+        <v>303191</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.662755099265283</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6293841544129322</v>
+        <v>0.6233024378931797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6944526166660311</v>
+        <v>0.6920945664436118</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>898</v>
@@ -3919,19 +3919,19 @@
         <v>532345</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>508377</v>
+        <v>509707</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>554002</v>
+        <v>553656</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6315400988063635</v>
+        <v>0.6315400988063634</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.603106709837401</v>
+        <v>0.6046840711451991</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6572328275429866</v>
+        <v>0.6568227771080032</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>99902</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85784</v>
+        <v>85942</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114176</v>
+        <v>113037</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3268711234232832</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.280678757866212</v>
+        <v>0.2811959443127371</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3735743288536239</v>
+        <v>0.3698482977378304</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -4044,19 +4044,19 @@
         <v>115932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102730</v>
+        <v>102096</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130851</v>
+        <v>131113</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2555966495047697</v>
+        <v>0.2555966495047696</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2264891553425582</v>
+        <v>0.2250928704079289</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2884879560069998</v>
+        <v>0.289065890602922</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>345</v>
@@ -4065,19 +4065,19 @@
         <v>215834</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>196732</v>
+        <v>197317</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>237364</v>
+        <v>236628</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.284289441448031</v>
+        <v>0.2842894414480311</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2591284830553723</v>
+        <v>0.2598991977790431</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3126480572004121</v>
+        <v>0.3116784291617436</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>205729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>191455</v>
+        <v>192594</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>219847</v>
+        <v>219689</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6731288765767166</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.626425671146376</v>
+        <v>0.6301517022621695</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7193212421337881</v>
+        <v>0.7188040556872628</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>650</v>
@@ -4115,19 +4115,19 @@
         <v>337642</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>322723</v>
+        <v>322461</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>350844</v>
+        <v>351478</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7444033504952303</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7115120439930002</v>
+        <v>0.710934109397078</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7735108446574417</v>
+        <v>0.774907129592071</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>964</v>
@@ -4136,19 +4136,19 @@
         <v>543371</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>521841</v>
+        <v>522577</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>562473</v>
+        <v>561888</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.715710558551969</v>
+        <v>0.7157105585519691</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.687351942799588</v>
+        <v>0.6883215708382563</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7408715169446278</v>
+        <v>0.740100802220957</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>1634384</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1565321</v>
+        <v>1570377</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1698416</v>
+        <v>1702816</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4640773379305981</v>
+        <v>0.464077337930598</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4444671139199283</v>
+        <v>0.4459027282837472</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4822589675119416</v>
+        <v>0.483508347757528</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2016</v>
@@ -4261,19 +4261,19 @@
         <v>1531076</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1476236</v>
+        <v>1473929</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1583794</v>
+        <v>1585657</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4123867769258656</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.397616091021017</v>
+        <v>0.3969946208803338</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4265860052070894</v>
+        <v>0.4270878362871848</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3436</v>
@@ -4282,19 +4282,19 @@
         <v>3165460</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3086064</v>
+        <v>3082342</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3258499</v>
+        <v>3249155</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4375499783483682</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4265753071111628</v>
+        <v>0.4260608159330918</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4504103609900552</v>
+        <v>0.4491188203396612</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>1887409</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1823377</v>
+        <v>1818977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1956472</v>
+        <v>1951416</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5359226620694019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5177410324880587</v>
+        <v>0.5164916522424718</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5555328860800719</v>
+        <v>0.5540972717162526</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3308</v>
@@ -4332,19 +4332,19 @@
         <v>2181642</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2128924</v>
+        <v>2127061</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2236482</v>
+        <v>2238789</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5876132230741343</v>
+        <v>0.5876132230741344</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5734139947929109</v>
+        <v>0.5729121637128151</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6023839089789834</v>
+        <v>0.6030053791196661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5251</v>
@@ -4353,19 +4353,19 @@
         <v>4069051</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3976012</v>
+        <v>3985356</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4148447</v>
+        <v>4152169</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5624500216516318</v>
+        <v>0.5624500216516319</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5495896390099447</v>
+        <v>0.5508811796603389</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5734246928888374</v>
+        <v>0.5739391840669082</v>
       </c>
     </row>
     <row r="27">
